--- a/schema_definitions/template_schema_v1.14.xlsx
+++ b/schema_definitions/template_schema_v1.14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karatugo/Documents/GitHub/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B20F9C5-4145-964C-8282-B4FB744328B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4084201-77B5-2C46-84D1-C7D389DF87AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9660" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="233">
   <si>
     <t>NAME</t>
   </si>
@@ -1177,7 +1177,7 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -3302,8 +3302,8 @@
   </sheetPr>
   <dimension ref="A1:R1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3702,9 +3702,11 @@
         <v>63</v>
       </c>
       <c r="O9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Q9" s="2" t="s">
         <v>65</v>
       </c>
